--- a/timeline/CaldicRFP.xlsx
+++ b/timeline/CaldicRFP.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20560994-0795-AC43-8391-DEC549818406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFF3AD6-42B8-374E-8D70-23C9E991FB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{01056964-EFF9-CC4B-9F29-15A97D6DAB56}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{01056964-EFF9-CC4B-9F29-15A97D6DAB56}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLine" sheetId="10" r:id="rId1"/>
     <sheet name="LOV" sheetId="9" r:id="rId2"/>
+    <sheet name="Original" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOV_ParentId">#REF!</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>Service</t>
   </si>
@@ -155,6 +156,15 @@
   </si>
   <si>
     <t xml:space="preserve">1. Caldic shares RFP with shortlisted vendors </t>
+  </si>
+  <si>
+    <t>Original Planning</t>
+  </si>
+  <si>
+    <t>Choice of new partner</t>
+  </si>
+  <si>
+    <t>Start collaboration with new vendor</t>
   </si>
 </sst>
 </file>
@@ -201,7 +211,7 @@
       <name val="ArialMT"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +230,14 @@
         <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -297,12 +313,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -324,10 +380,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -425,8 +500,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}" name="Table1" displayName="Table1" ref="A1:N10" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:N10" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}" name="Table1" displayName="Table1" ref="A1:N11" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A1:N11" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N10">
+    <sortCondition ref="C2:C10"/>
+    <sortCondition ref="D2:D10"/>
+    <sortCondition ref="E2:E10"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{A4028886-D99E-3540-A7F4-4D50DF04691D}" name="Id"/>
     <tableColumn id="2" xr3:uid="{92102721-8727-3442-9CBE-699AD9B48AD9}" name="TimeLineId" dataDxfId="5">
@@ -759,13 +839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B71B893-BE33-8E4F-A8AE-9C95E0806B93}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1028,10 +1108,10 @@
         <v>2024</v>
       </c>
       <c r="D7" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="9">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>26</v>
@@ -1044,7 +1124,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="K7" s="5">
         <v>-20</v>
@@ -1067,10 +1147,10 @@
         <v>2024</v>
       </c>
       <c r="D8" s="9">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9">
         <v>10</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>26</v>
@@ -1083,7 +1163,7 @@
         <v>32</v>
       </c>
       <c r="J8" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K8" s="5">
         <v>-20</v>
@@ -1106,10 +1186,10 @@
         <v>2024</v>
       </c>
       <c r="D9" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>26</v>
@@ -1122,7 +1202,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="4">
-        <v>-50</v>
+        <v>90</v>
       </c>
       <c r="K9" s="5">
         <v>-20</v>
@@ -1145,7 +1225,7 @@
         <v>2024</v>
       </c>
       <c r="D10" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="9">
         <v>31</v>
@@ -1158,10 +1238,10 @@
         <v>RFP</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="K10" s="5">
         <v>-20</v>
@@ -1173,6 +1253,47 @@
         <v>23</v>
       </c>
       <c r="N10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f>Table1[[#This Row],[Name]]</f>
+        <v>RFP</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <v>-20</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1270,4 +1391,204 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9139EC8-FBB9-FA4C-BC6B-BE4DB8ED7F5D}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2" s="16">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="18">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18">
+        <v>16</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B4" s="16">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <v>26</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="18">
+        <v>9</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="16">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="18">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18">
+        <v>30</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B8" s="16">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="18">
+        <v>10</v>
+      </c>
+      <c r="C9" s="18">
+        <v>31</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B10" s="16">
+        <v>10</v>
+      </c>
+      <c r="C10" s="16">
+        <v>31</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>